--- a/results/util-algo=mallows_costs-dist=betavariate_voters=15_projects=15/approved_voters.xlsx
+++ b/results/util-algo=mallows_costs-dist=betavariate_voters=15_projects=15/approved_voters.xlsx
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
@@ -533,7 +533,7 @@
         <v>1</v>
       </c>
       <c r="G2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -545,10 +545,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2" t="b">
         <v>0</v>
@@ -560,7 +560,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
@@ -585,7 +585,7 @@
         <v>1</v>
       </c>
       <c r="G3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -609,10 +609,10 @@
         <v>1</v>
       </c>
       <c r="O3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
@@ -637,19 +637,19 @@
         <v>1</v>
       </c>
       <c r="G4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
       </c>
       <c r="I4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="b">
         <v>0</v>
       </c>
       <c r="K4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="b">
         <v>0</v>
@@ -677,19 +677,19 @@
         <v>1</v>
       </c>
       <c r="C5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
       </c>
       <c r="G5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -698,13 +698,13 @@
         <v>1</v>
       </c>
       <c r="J5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="b">
         <v>1</v>
       </c>
       <c r="L5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" t="b">
         <v>0</v>
@@ -716,7 +716,7 @@
         <v>1</v>
       </c>
       <c r="P5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -726,10 +726,10 @@
         </is>
       </c>
       <c r="B6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
@@ -741,19 +741,19 @@
         <v>1</v>
       </c>
       <c r="G6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
       <c r="I6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="b">
         <v>0</v>
       </c>
       <c r="K6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" t="b">
         <v>0</v>
@@ -778,10 +778,10 @@
         </is>
       </c>
       <c r="B7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
@@ -793,19 +793,19 @@
         <v>1</v>
       </c>
       <c r="G7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
       <c r="I7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="b">
         <v>0</v>
       </c>
       <c r="K7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" t="b">
         <v>0</v>
@@ -833,19 +833,19 @@
         <v>1</v>
       </c>
       <c r="C8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="b">
         <v>1</v>
       </c>
       <c r="G8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -854,13 +854,13 @@
         <v>1</v>
       </c>
       <c r="J8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" t="b">
         <v>1</v>
       </c>
       <c r="L8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" t="b">
         <v>0</v>
@@ -872,7 +872,7 @@
         <v>1</v>
       </c>
       <c r="P8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -882,10 +882,10 @@
         </is>
       </c>
       <c r="B9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
@@ -897,19 +897,19 @@
         <v>1</v>
       </c>
       <c r="G9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
       <c r="I9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="b">
         <v>0</v>
       </c>
       <c r="K9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" t="b">
         <v>0</v>
@@ -934,31 +934,31 @@
         </is>
       </c>
       <c r="B10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="b">
         <v>1</v>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="b">
         <v>1</v>
@@ -973,7 +973,7 @@
         <v>1</v>
       </c>
       <c r="O10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="b">
         <v>1</v>
@@ -992,7 +992,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -1004,13 +1004,13 @@
         <v>1</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="b">
         <v>1</v>
@@ -1038,10 +1038,10 @@
         </is>
       </c>
       <c r="B12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
@@ -1053,19 +1053,19 @@
         <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
       <c r="I12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="b">
         <v>0</v>
       </c>
       <c r="K12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" t="b">
         <v>0</v>
@@ -1090,10 +1090,10 @@
         </is>
       </c>
       <c r="B13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>
@@ -1105,7 +1105,7 @@
         <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="K13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" t="b">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         <v>1</v>
       </c>
       <c r="P13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1142,10 +1142,10 @@
         </is>
       </c>
       <c r="B14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
@@ -1154,37 +1154,37 @@
         <v>0</v>
       </c>
       <c r="F14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="b">
         <v>0</v>
       </c>
       <c r="J14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" t="b">
         <v>0</v>
       </c>
       <c r="N14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1194,10 +1194,10 @@
         </is>
       </c>
       <c r="B15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
@@ -1206,37 +1206,37 @@
         <v>0</v>
       </c>
       <c r="F15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="b">
         <v>0</v>
       </c>
       <c r="J15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" t="b">
         <v>0</v>
       </c>
       <c r="N15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1246,10 +1246,10 @@
         </is>
       </c>
       <c r="B16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="b">
         <v>1</v>
@@ -1261,19 +1261,19 @@
         <v>1</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
       <c r="I16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="b">
         <v>0</v>
       </c>
       <c r="K16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" t="b">
         <v>0</v>
@@ -1298,10 +1298,10 @@
         </is>
       </c>
       <c r="B17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="b">
         <v>1</v>
@@ -1313,7 +1313,7 @@
         <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -1337,10 +1337,10 @@
         <v>1</v>
       </c>
       <c r="O17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/results/util-algo=mallows_costs-dist=betavariate_voters=15_projects=15/approved_voters.xlsx
+++ b/results/util-algo=mallows_costs-dist=betavariate_voters=15_projects=15/approved_voters.xlsx
@@ -518,7 +518,7 @@
         </is>
       </c>
       <c r="B2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
@@ -527,16 +527,16 @@
         <v>1</v>
       </c>
       <c r="E2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
       </c>
       <c r="G2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="b">
         <v>0</v>
@@ -545,19 +545,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2" t="b">
         <v>0</v>
       </c>
       <c r="N2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P2" t="b">
         <v>0</v>
@@ -570,7 +570,7 @@
         </is>
       </c>
       <c r="B3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
@@ -585,7 +585,7 @@
         <v>1</v>
       </c>
       <c r="G3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -600,7 +600,7 @@
         <v>1</v>
       </c>
       <c r="L3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3" t="b">
         <v>0</v>
@@ -609,7 +609,7 @@
         <v>1</v>
       </c>
       <c r="O3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P3" t="b">
         <v>0</v>
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="B4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
@@ -637,13 +637,13 @@
         <v>1</v>
       </c>
       <c r="G4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
       </c>
       <c r="I4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="b">
         <v>0</v>
@@ -661,10 +661,10 @@
         <v>1</v>
       </c>
       <c r="O4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -680,10 +680,10 @@
         <v>1</v>
       </c>
       <c r="D5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="b">
         <v>0</v>
@@ -704,19 +704,19 @@
         <v>1</v>
       </c>
       <c r="L5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" t="b">
         <v>1</v>
       </c>
       <c r="O5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="B6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
@@ -741,13 +741,13 @@
         <v>1</v>
       </c>
       <c r="G6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
       <c r="I6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="b">
         <v>0</v>
@@ -765,10 +765,10 @@
         <v>1</v>
       </c>
       <c r="O6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -778,7 +778,7 @@
         </is>
       </c>
       <c r="B7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="b">
         <v>1</v>
@@ -793,13 +793,13 @@
         <v>1</v>
       </c>
       <c r="G7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
       <c r="I7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="b">
         <v>0</v>
@@ -817,10 +817,10 @@
         <v>1</v>
       </c>
       <c r="O7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -836,10 +836,10 @@
         <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="b">
         <v>1</v>
@@ -848,10 +848,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="b">
         <v>0</v>
@@ -860,19 +860,19 @@
         <v>1</v>
       </c>
       <c r="L8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" t="b">
         <v>1</v>
       </c>
       <c r="O8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="B9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="b">
         <v>1</v>
@@ -897,13 +897,13 @@
         <v>1</v>
       </c>
       <c r="G9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
       <c r="I9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="b">
         <v>0</v>
@@ -921,10 +921,10 @@
         <v>1</v>
       </c>
       <c r="O9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -934,7 +934,7 @@
         </is>
       </c>
       <c r="B10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
@@ -952,28 +952,28 @@
         <v>0</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="b">
         <v>0</v>
       </c>
       <c r="K10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" t="b">
         <v>0</v>
       </c>
       <c r="M10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10" t="b">
         <v>1</v>
       </c>
       <c r="O10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" t="b">
         <v>1</v>
@@ -986,7 +986,7 @@
         </is>
       </c>
       <c r="B11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="b">
         <v>1</v>
@@ -995,31 +995,31 @@
         <v>1</v>
       </c>
       <c r="E11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="b">
         <v>1</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="b">
         <v>0</v>
       </c>
       <c r="K11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" t="b">
         <v>0</v>
       </c>
       <c r="M11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" t="b">
         <v>0</v>
@@ -1038,7 +1038,7 @@
         </is>
       </c>
       <c r="B12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="b">
         <v>1</v>
@@ -1053,13 +1053,13 @@
         <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
       <c r="I12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="b">
         <v>0</v>
@@ -1077,10 +1077,10 @@
         <v>1</v>
       </c>
       <c r="O12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1090,7 +1090,7 @@
         </is>
       </c>
       <c r="B13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
@@ -1099,13 +1099,13 @@
         <v>1</v>
       </c>
       <c r="E13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="b">
         <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="K13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" t="b">
         <v>0</v>
@@ -1129,7 +1129,7 @@
         <v>1</v>
       </c>
       <c r="O13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" t="b">
         <v>0</v>
@@ -1142,7 +1142,7 @@
         </is>
       </c>
       <c r="B14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
@@ -1154,22 +1154,22 @@
         <v>0</v>
       </c>
       <c r="F14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="b">
         <v>0</v>
       </c>
       <c r="K14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" t="b">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="N14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" t="b">
         <v>0</v>
@@ -1194,7 +1194,7 @@
         </is>
       </c>
       <c r="B15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="b">
         <v>1</v>
@@ -1206,22 +1206,22 @@
         <v>0</v>
       </c>
       <c r="F15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="b">
         <v>0</v>
       </c>
       <c r="K15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" t="b">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>1</v>
       </c>
       <c r="O15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" t="b">
         <v>0</v>
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="B16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="b">
         <v>1</v>
@@ -1261,13 +1261,13 @@
         <v>1</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
       <c r="I16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="b">
         <v>0</v>
@@ -1285,10 +1285,10 @@
         <v>1</v>
       </c>
       <c r="O16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1298,7 +1298,7 @@
         </is>
       </c>
       <c r="B17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="b">
         <v>1</v>
@@ -1313,10 +1313,10 @@
         <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="b">
         <v>0</v>
@@ -1325,19 +1325,19 @@
         <v>0</v>
       </c>
       <c r="K17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" t="b">
         <v>1</v>
       </c>
       <c r="O17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" t="b">
         <v>0</v>
